--- a/medicine/Psychotrope/Société_des_boissons_du_Maroc/Société_des_boissons_du_Maroc.xlsx
+++ b/medicine/Psychotrope/Société_des_boissons_du_Maroc/Société_des_boissons_du_Maroc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_des_boissons_du_Maroc</t>
+          <t>Société_des_boissons_du_Maroc</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Société des Boissons du Maroc anciennement Brasseries du Maroc est une entreprise marocaine créée en 1919 par le Groupe BGI. L’entreprise était une filiale de la SNI jusqu'en 2003, date de sa reprise par le Groupe Castel.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_des_boissons_du_Maroc</t>
+          <t>Société_des_boissons_du_Maroc</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,15 +529,20 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Bières
-Bières locales :
-Flag spéciale[1]
-Flag Pils[1]
-Kania[2][source insuffisante]
-Casablanca[1]
+          <t>Bières</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Bières locales :
+Flag spéciale
+Flag Pils
+Kania[source insuffisante]
+Casablanca
 Casablanca light
 Casablanca Citron
-Stork[1]
+Stork
 Bières sous licence :
 Heineken
 Castel Beer
@@ -533,16 +550,7 @@
 Beaufort
 Bières sans alcool :
 Flag
-Crown
-Vins
-Larroque[Quoi ?]
-Merlot
-Bordeaux
-Syrah
-Cabernet
-Boissons maltées
-Fayrouz
-Merry[Quoi ?]</t>
+Crown</t>
         </is>
       </c>
     </row>
@@ -552,7 +560,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_des_boissons_du_Maroc</t>
+          <t>Société_des_boissons_du_Maroc</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -567,10 +575,89 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Produits</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Vins</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Larroque[Quoi ?]
+Merlot
+Bordeaux
+Syrah
+Cabernet</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Société_des_boissons_du_Maroc</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Soci%C3%A9t%C3%A9_des_boissons_du_Maroc</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Produits</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Boissons maltées</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fayrouz
+Merry[Quoi ?]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Société_des_boissons_du_Maroc</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Soci%C3%A9t%C3%A9_des_boissons_du_Maroc</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Actionnariat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve"> MDI : 63,51 %
  Flottant en bourse : 20,83 %
